--- a/StructureDefinition-model-hiv-case-report.xlsx
+++ b/StructureDefinition-model-hiv-case-report.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AJ$103</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AJ$108</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3100" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3250" uniqueCount="278">
   <si>
     <t>Path</t>
   </si>
@@ -262,40 +262,40 @@
     <t>HIVCaseReport.reportNumber</t>
   </si>
   <si>
-    <t>Case Report Number</t>
+    <t>* Case Report Number</t>
   </si>
   <si>
     <t>HIVCaseReport.reportIntro</t>
   </si>
   <si>
-    <t>Case Report Introduction text</t>
-  </si>
-  <si>
-    <t>HIVCaseReport.identifyingInformation</t>
+    <t>Introductory note to the report</t>
+  </si>
+  <si>
+    <t>HIVCaseReport.patientInformation</t>
   </si>
   <si>
     <t>The patient's identifying information</t>
   </si>
   <si>
-    <t>HIVCaseReport.identifyingInformation.ARVPatientNumber</t>
+    <t>HIVCaseReport.patientInformation.ARVPatientNumber</t>
   </si>
   <si>
     <t>The patient's ARV treatment identifier</t>
   </si>
   <si>
-    <t>HIVCaseReport.identifyingInformation.personalInformation</t>
+    <t>HIVCaseReport.patientInformation.personalInformation</t>
   </si>
   <si>
     <t>The patient's personal information</t>
   </si>
   <si>
-    <t>HIVCaseReport.identifyingInformation.personalInformation.full_name</t>
+    <t>HIVCaseReport.patientInformation.personalInformation.full_name</t>
   </si>
   <si>
     <t>Patient's first and last name</t>
   </si>
   <si>
-    <t>HIVCaseReport.identifyingInformation.personalInformation.ethnicity</t>
+    <t>HIVCaseReport.patientInformation.personalInformation.ethnicity</t>
   </si>
   <si>
     <t xml:space="preserve">code
@@ -305,49 +305,49 @@
     <t>The patient's ethnicity</t>
   </si>
   <si>
-    <t>HIVCaseReport.identifyingInformation.personalInformation.gender</t>
+    <t>HIVCaseReport.patientInformation.personalInformation.gender</t>
   </si>
   <si>
     <t>The patient's gender</t>
   </si>
   <si>
-    <t>HIVCaseReport.identifyingInformation.personalInformation.birth_year</t>
+    <t>HIVCaseReport.patientInformation.personalInformation.birth_year</t>
   </si>
   <si>
     <t>The patient's year of birth</t>
   </si>
   <si>
-    <t>HIVCaseReport.identifyingInformation.personalInformation.identification</t>
+    <t>HIVCaseReport.patientInformation.personalInformation.identification</t>
   </si>
   <si>
     <t>The patient's personal identification</t>
   </si>
   <si>
-    <t>HIVCaseReport.identifyingInformation.personalInformation.identification.health_insurance</t>
+    <t>HIVCaseReport.patientInformation.personalInformation.identification.health_insurance</t>
   </si>
   <si>
     <t>Health insurance number</t>
   </si>
   <si>
-    <t>HIVCaseReport.identifyingInformation.personalInformation.identification.passport</t>
+    <t>HIVCaseReport.patientInformation.personalInformation.identification.passport</t>
   </si>
   <si>
     <t>Passport number</t>
   </si>
   <si>
-    <t>HIVCaseReport.identifyingInformation.personalInformation.currentResidence</t>
+    <t>HIVCaseReport.patientInformation.personalInformation.currentResidence</t>
   </si>
   <si>
     <t>Patient's current residence</t>
   </si>
   <si>
-    <t>HIVCaseReport.identifyingInformation.personalInformation.permanentResidence</t>
+    <t>HIVCaseReport.patientInformation.personalInformation.permanentResidence</t>
   </si>
   <si>
     <t>Patient's permanent residence</t>
   </si>
   <si>
-    <t>HIVCaseReport.identifyingInformation.personalInformation.occupation</t>
+    <t>HIVCaseReport.patientInformation.personalInformation.occupation</t>
   </si>
   <si>
     <t xml:space="preserve">CodeableConcept
@@ -360,15 +360,21 @@
     <t>HIVCaseReport.riskFactors.riskPopulation</t>
   </si>
   <si>
-    <t>The risk population</t>
+    <t>Risk population</t>
   </si>
   <si>
     <t>HIVCaseReport.riskFactors.riskBehavior</t>
   </si>
   <si>
+    <t>Risk behavior(s)</t>
+  </si>
+  <si>
     <t>HIVCaseReport.riskFactors.transmissionRoute</t>
   </si>
   <si>
+    <t>HIV transmission route</t>
+  </si>
+  <si>
     <t>HIVCaseReport.hiv-diagnosis</t>
   </si>
   <si>
@@ -384,12 +390,21 @@
     <t>HIVCaseReport.hiv-diagnosis.confirmingLab</t>
   </si>
   <si>
+    <t>HIV Infection confirming Lab</t>
+  </si>
+  <si>
     <t>HIVCaseReport.hiv-diagnosis.placeOfSpecimenCollection</t>
   </si>
   <si>
+    <t>Place of specimen collection for HIV Infection confirmation diagnosis</t>
+  </si>
+  <si>
     <t>HIVCaseReport.hiv-diagnosis.dateOfSpecimenCollection</t>
   </si>
   <si>
+    <t>Date of specimen collection for HIV Infection confirmation diagnosis</t>
+  </si>
+  <si>
     <t>HIVCaseReport.hiv-recencyTest</t>
   </si>
   <si>
@@ -399,6 +414,9 @@
     <t>HIVCaseReport.hiv-recencyTest.rapidTest</t>
   </si>
   <si>
+    <t>HIV recency rapid test</t>
+  </si>
+  <si>
     <t>HIVCaseReport.hiv-recencyTest.rapidTest.dateOfSpecimenCollection</t>
   </si>
   <si>
@@ -408,31 +426,42 @@
     <t>HIVCaseReport.hiv-recencyTest.rapidTest.dateOfTestPerformance</t>
   </si>
   <si>
-    <t>Date of HIV recency test</t>
+    <t>Date of HIV rapid test performance for recency test</t>
   </si>
   <si>
     <t>HIVCaseReport.hiv-recencyTest.rapidTest.placeOfSpecimenCollection</t>
   </si>
   <si>
-    <t xml:space="preserve">codeableConcept
-</t>
+    <t>Place of specimen collection for rapid recency test</t>
   </si>
   <si>
     <t>HIVCaseReport.hiv-recencyTest.rapidTest.testResult</t>
   </si>
   <si>
+    <t>Rapid recency test result</t>
+  </si>
+  <si>
     <t>HIVCaseReport.hiv-recencyTest.viralLoadTest</t>
   </si>
   <si>
     <t>HIVCaseReport.hiv-recencyTest.viralLoadTest.dateOfTestPerformance</t>
   </si>
   <si>
+    <t>Date of viral load test</t>
+  </si>
+  <si>
     <t>HIVCaseReport.hiv-recencyTest.viralLoadTest.testResult</t>
   </si>
   <si>
+    <t>Result of viral load test</t>
+  </si>
+  <si>
     <t>HIVCaseReport.hiv-recencyTest.recencyConclusion</t>
   </si>
   <si>
+    <t>Recency test Conclusion</t>
+  </si>
+  <si>
     <t>HIVCaseReport.cd4TestBeforeART</t>
   </si>
   <si>
@@ -442,70 +471,117 @@
     <t>HIVCaseReport.cd4TestBeforeART.dateOfSpecimenCollection</t>
   </si>
   <si>
-    <t>The date the samples were collected for the CD4 test</t>
+    <t>Date of specimen collection for the CD4 test before ART</t>
   </si>
   <si>
     <t>HIVCaseReport.cd4TestBeforeART.dateOfTestPerformance</t>
   </si>
   <si>
-    <t>The date the CD4 test was performed</t>
+    <t>Date of the CD4 test before ART</t>
   </si>
   <si>
     <t>HIVCaseReport.cd4TestBeforeART.placeOfSpecimenCollection</t>
   </si>
   <si>
+    <t>Place of specimen collection for the CD4 test before ART</t>
+  </si>
+  <si>
     <t>HIVCaseReport.cd4TestBeforeART.result</t>
   </si>
   <si>
-    <t xml:space="preserve">CodeableConceot
-</t>
+    <t>CD4 before ART test result</t>
   </si>
   <si>
     <t>HIVCaseReport.cd4TestDuringART</t>
   </si>
   <si>
+    <t>CD4 test during ART</t>
+  </si>
+  <si>
     <t>HIVCaseReport.cd4TestDuringART.dateOfSpecimenCollection</t>
   </si>
   <si>
+    <t>Date of specimen collection for the CD4 test during ART</t>
+  </si>
+  <si>
     <t>HIVCaseReport.cd4TestDuringART.dateOfTestPerformance</t>
   </si>
   <si>
+    <t>Date of the CD4 test during ART</t>
+  </si>
+  <si>
     <t>HIVCaseReport.cd4TestDuringART.placeOfSpecimenCollection</t>
   </si>
   <si>
+    <t>Place of specimen collection for the CD4 test during ART</t>
+  </si>
+  <si>
     <t>HIVCaseReport.cd4TestDuringART.result</t>
   </si>
   <si>
+    <t>CD4 during ART test result</t>
+  </si>
+  <si>
     <t>HIVCaseReport.routineVLTestDuringART</t>
   </si>
   <si>
+    <t>Routine Viral Load (VL) test during ART</t>
+  </si>
+  <si>
     <t>HIVCaseReport.routineVLTestDuringART.dateOfSpecimenCollection</t>
   </si>
   <si>
+    <t>Date of specimen collection for the routine VL test during ART</t>
+  </si>
+  <si>
     <t>HIVCaseReport.routineVLTestDuringART.dateOfTestPerformance</t>
   </si>
   <si>
+    <t>Date of the VL test during ART</t>
+  </si>
+  <si>
     <t>HIVCaseReport.routineVLTestDuringART.placeOfSpecimenCollection</t>
   </si>
   <si>
+    <t>Place of specimen collection for the VL test during ART</t>
+  </si>
+  <si>
     <t>HIVCaseReport.routineVLTestDuringART.result</t>
   </si>
   <si>
+    <t>VL during ART test result</t>
+  </si>
+  <si>
     <t>HIVCaseReport.drugResistanceTest</t>
   </si>
   <si>
+    <t>Drug resistance test</t>
+  </si>
+  <si>
     <t>HIVCaseReport.drugResistanceTest.dateOfSpecimenCollection</t>
   </si>
   <si>
+    <t>Date of specimen collection for the drug resistance test</t>
+  </si>
+  <si>
     <t>HIVCaseReport.drugResistanceTest.dateOfTestPerformance</t>
   </si>
   <si>
+    <t>Date of the drug resistance test</t>
+  </si>
+  <si>
     <t>HIVCaseReport.drugResistanceTest.placeOfSpecimenCollection</t>
   </si>
   <si>
+    <t>Place of specimen collection for the drug resistance test</t>
+  </si>
+  <si>
     <t>HIVCaseReport.drugResistanceTest.result</t>
   </si>
   <si>
+    <t>Drug resistance test results</t>
+  </si>
+  <si>
     <t>HIVCaseReport.arvTreatment</t>
   </si>
   <si>
@@ -518,12 +594,18 @@
     <t>Antiretroviral treatment history</t>
   </si>
   <si>
-    <t>HIVCaseReport.arvTreatment.dateOfARVInitiation</t>
+    <t>HIVCaseReport.arvTreatment.dateOfTreatmentStart</t>
   </si>
   <si>
     <t>Date of antiretroviral treatment initiation</t>
   </si>
   <si>
+    <t>HIVCaseReport.arvTreatment.dateOfTreatmentStop</t>
+  </si>
+  <si>
+    <t>Date of antiretroviral treatment stop</t>
+  </si>
+  <si>
     <t>HIVCaseReport.arvTreatment.placeOfARVInitiation</t>
   </si>
   <si>
@@ -536,12 +618,6 @@
     <t>Date of loss to follow up antiretroviral treatment</t>
   </si>
   <si>
-    <t>HIVCaseReport.arvTreatment.dateOfTreatmentStop</t>
-  </si>
-  <si>
-    <t>Date of antiretroviral treatment stop</t>
-  </si>
-  <si>
     <t>HIVCaseReport.arvTreatment.dateOfARVTransferredOut</t>
   </si>
   <si>
@@ -578,9 +654,6 @@
     <t>Date antiretroviral 3rd line and regimen started</t>
   </si>
   <si>
-    <t>HIVCaseReport.coMorbidities</t>
-  </si>
-  <si>
     <t>HIVCaseReport.comorbidities</t>
   </si>
   <si>
@@ -593,20 +666,26 @@
     <t>Tuberculosis</t>
   </si>
   <si>
-    <t>HIVCaseReport.comorbidities.tuberculosis.datesTPTStartedAndCompleted</t>
+    <t>HIVCaseReport.comorbidities.tuberculosis.TPT</t>
   </si>
   <si>
     <t xml:space="preserve">Period
 </t>
   </si>
   <si>
-    <t>Dates started and completed TPT</t>
-  </si>
-  <si>
-    <t>HIVCaseReport.comorbidities.tuberculosis.placeTPTProvided</t>
-  </si>
-  <si>
-    <t>P*lace where the TPT was provided</t>
+    <t>Tuberculosis Preventive Treatment</t>
+  </si>
+  <si>
+    <t>HIVCaseReport.comorbidities.tuberculosis.TPT.datesStartedAndCompleted</t>
+  </si>
+  <si>
+    <t>Dates started and completed Tuberculosis Preventive Treatment</t>
+  </si>
+  <si>
+    <t>HIVCaseReport.comorbidities.tuberculosis.TPT.placeProvided</t>
+  </si>
+  <si>
+    <t>Place where the Tuberculosis Preventive Treatment was provided</t>
   </si>
   <si>
     <t>HIVCaseReport.comorbidities.tuberculosis.dateTBDiagnosis</t>
@@ -615,46 +694,76 @@
     <t>Date TB diagnosis</t>
   </si>
   <si>
-    <t>HIVCaseReport.comorbidities.tuberculosis.datesTBTreatmentStartedAndCompleted</t>
+    <t>HIVCaseReport.comorbidities.tuberculosis.TBTreatment</t>
+  </si>
+  <si>
+    <t>TB Treatment</t>
+  </si>
+  <si>
+    <t>HIVCaseReport.comorbidities.tuberculosis.TBTreatment.datesStartedAndCompleted</t>
   </si>
   <si>
     <t>Dates started and completed TB Treatment</t>
   </si>
   <si>
-    <t>HIVCaseReport.comorbidities.tuberculosis.placeTBTreatmentProvided</t>
+    <t>HIVCaseReport.comorbidities.tuberculosis.TBTreatment.placeTreatmentProvided</t>
   </si>
   <si>
     <t>Place where the TB treatment was provided</t>
   </si>
   <si>
-    <t>HIVCaseReport.comorbidities.hbv_hcv</t>
+    <t>HIVCaseReport.comorbidities.hbv_hcv.hbv</t>
   </si>
   <si>
     <t>HBV and HCV</t>
   </si>
   <si>
-    <t>HIVCaseReport.comorbidities.hbv_hcv.dateHBVHCVDiagnosis</t>
-  </si>
-  <si>
-    <t>Date HBV and HCV diagnosis</t>
-  </si>
-  <si>
-    <t>HIVCaseReport.comorbidities.hbv_hcv.datesHBVHCVTreatmentStartedAndCompleted</t>
-  </si>
-  <si>
-    <t>Dates started and completed HBV and HCV Treatment</t>
-  </si>
-  <si>
-    <t>HIVCaseReport.comorbidities.hbv_hcv.placeHBVHCVTreatmentProvided</t>
-  </si>
-  <si>
-    <t>Place where the HBV and HCV treatment was provided</t>
+    <t>HIVCaseReport.comorbidities.hbv_hcv.hbv.dateHBVDiagnosis</t>
+  </si>
+  <si>
+    <t>Date HBV diagnosis</t>
+  </si>
+  <si>
+    <t>HIVCaseReport.comorbidities.hbv_hcv.hbv.datesHBVTreatmentStartedAndCompleted</t>
+  </si>
+  <si>
+    <t>Dates started and completed HBV Treatment</t>
+  </si>
+  <si>
+    <t>HIVCaseReport.comorbidities.hbv_hcv.hbv.placeHBVTreatmentProvided</t>
+  </si>
+  <si>
+    <t>Place where the HBV treatment was provided</t>
+  </si>
+  <si>
+    <t>HIVCaseReport.comorbidities.hbv_hcv.hcv</t>
+  </si>
+  <si>
+    <t>HCV</t>
+  </si>
+  <si>
+    <t>HIVCaseReport.comorbidities.hbv_hcv.hcv.dateHCVDiagnosis</t>
+  </si>
+  <si>
+    <t>Date HCV diagnosis</t>
+  </si>
+  <si>
+    <t>HIVCaseReport.comorbidities.hbv_hcv.hbv.datesHCVTreatmentStartedAndCompleted</t>
+  </si>
+  <si>
+    <t>Dates started and completed HCV Treatment</t>
+  </si>
+  <si>
+    <t>HIVCaseReport.comorbidities.hbv_hcv.hcv.placeHCVTreatmentProvided</t>
+  </si>
+  <si>
+    <t>Place where the HCV treatment was provided</t>
   </si>
   <si>
     <t>HIVCaseReport.pregnancy</t>
   </si>
   <si>
-    <t>Pregnancy Status</t>
+    <t>Pregnancy Status and history</t>
   </si>
   <si>
     <t>HIVCaseReport.pregnancy.datePregnancyReported</t>
@@ -690,13 +799,19 @@
     <t>HIVCaseReport.pregnancy.pregnancyOutcomes.pregnancyOutcomeCode</t>
   </si>
   <si>
+    <t>Pregnancy outcome</t>
+  </si>
+  <si>
     <t>HIVCaseReport.pregnancy.pregnancyOutcomes.childDateOfBirth</t>
   </si>
   <si>
-    <t>Child's date of birth outcomes</t>
+    <t>Child's date of birth</t>
   </si>
   <si>
     <t>HIVCaseReport.pregnancy.pregnancyOutcomes.gestationAtDelivery</t>
+  </si>
+  <si>
+    <t>Child's gestational age at delivery</t>
   </si>
   <si>
     <t>HIVCaseReport.pregnancy.pregnancyOutcomes.birthWeight</t>
@@ -706,16 +821,31 @@
 </t>
   </si>
   <si>
+    <t>Child's birth weight</t>
+  </si>
+  <si>
     <t>HIVCaseReport.pregnancy.pregnancyOutcomes.birthDefects</t>
   </si>
   <si>
+    <t>Child's birth defects</t>
+  </si>
+  <si>
     <t>HIVCaseReport.pregnancy.pregnancyOutcomes.hivStatus</t>
   </si>
   <si>
+    <t>Child's HIV status</t>
+  </si>
+  <si>
     <t>HIVCaseReport.pregnancy.pregnancyOutcomes.hivDiagnosisDate</t>
   </si>
   <si>
+    <t>Child's HIV diagnosis date if positive</t>
+  </si>
+  <si>
     <t>HIVCaseReport.pregnancy.pregnancyOutcomes.dateARTStart</t>
+  </si>
+  <si>
+    <t>Date of child's ART treatment start</t>
   </si>
   <si>
     <t>HIVCaseReport.death</t>
@@ -882,7 +1012,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ103"/>
+  <dimension ref="A1:AJ108"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -891,7 +1021,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="83.828125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="80.59765625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="12.65625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.64453125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
@@ -901,7 +1031,7 @@
     <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="51.4140625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="63.95703125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -921,7 +1051,7 @@
     <col min="28" max="28" width="42.03125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="83.828125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="31" max="31" width="80.59765625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="10.55078125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="33" max="33" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="13.87109375" customWidth="true" bestFit="true"/>
@@ -2052,7 +2182,7 @@
         <v>37</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="K12" t="s" s="2">
         <v>82</v>
@@ -2248,7 +2378,7 @@
         <v>37</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="K14" t="s" s="2">
         <v>86</v>
@@ -2836,7 +2966,7 @@
         <v>37</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="K20" t="s" s="2">
         <v>99</v>
@@ -3314,7 +3444,7 @@
         <v>38</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>37</v>
@@ -3387,7 +3517,7 @@
         <v>38</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>37</v>
@@ -3412,7 +3542,7 @@
         <v>38</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>37</v>
@@ -3427,7 +3557,7 @@
         <v>107</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="L26" s="2"/>
       <c r="M26" s="2"/>
@@ -3485,7 +3615,7 @@
         <v>38</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>37</v>
@@ -3499,7 +3629,7 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -3525,7 +3655,7 @@
         <v>107</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="L27" s="2"/>
       <c r="M27" s="2"/>
@@ -3577,7 +3707,7 @@
         <v>37</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>38</v>
@@ -3597,7 +3727,7 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -3620,10 +3750,10 @@
         <v>37</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="L28" s="2"/>
       <c r="M28" s="2"/>
@@ -3675,7 +3805,7 @@
         <v>37</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>38</v>
@@ -3695,7 +3825,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -3703,7 +3833,7 @@
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="F29" t="s" s="2">
         <v>47</v>
@@ -3721,7 +3851,7 @@
         <v>75</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="L29" s="2"/>
       <c r="M29" s="2"/>
@@ -3773,10 +3903,10 @@
         <v>37</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>47</v>
@@ -3793,7 +3923,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -3819,7 +3949,7 @@
         <v>70</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="L30" s="2"/>
       <c r="M30" s="2"/>
@@ -3871,7 +4001,7 @@
         <v>37</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>38</v>
@@ -3891,7 +4021,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -3914,10 +4044,10 @@
         <v>37</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>48</v>
+        <v>107</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="L31" s="2"/>
       <c r="M31" s="2"/>
@@ -3969,7 +4099,7 @@
         <v>37</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>38</v>
@@ -3989,7 +4119,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -4015,7 +4145,7 @@
         <v>75</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="L32" s="2"/>
       <c r="M32" s="2"/>
@@ -4067,7 +4197,7 @@
         <v>37</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>38</v>
@@ -4087,7 +4217,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -4110,10 +4240,10 @@
         <v>37</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="L33" s="2"/>
       <c r="M33" s="2"/>
@@ -4165,7 +4295,7 @@
         <v>37</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>38</v>
@@ -4185,7 +4315,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -4208,10 +4338,10 @@
         <v>37</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="L34" s="2"/>
       <c r="M34" s="2"/>
@@ -4263,7 +4393,7 @@
         <v>37</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>38</v>
@@ -4283,7 +4413,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -4309,7 +4439,7 @@
         <v>75</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="L35" s="2"/>
       <c r="M35" s="2"/>
@@ -4361,7 +4491,7 @@
         <v>37</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>38</v>
@@ -4381,7 +4511,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -4389,7 +4519,7 @@
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="F36" t="s" s="2">
         <v>47</v>
@@ -4407,7 +4537,7 @@
         <v>75</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="L36" s="2"/>
       <c r="M36" s="2"/>
@@ -4459,10 +4589,10 @@
         <v>37</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>47</v>
@@ -4479,7 +4609,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -4502,10 +4632,10 @@
         <v>37</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>128</v>
+        <v>107</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="L37" s="2"/>
       <c r="M37" s="2"/>
@@ -4557,7 +4687,7 @@
         <v>37</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>38</v>
@@ -4577,7 +4707,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -4585,7 +4715,7 @@
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="F38" t="s" s="2">
         <v>47</v>
@@ -4603,7 +4733,7 @@
         <v>90</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="L38" s="2"/>
       <c r="M38" s="2"/>
@@ -4655,10 +4785,10 @@
         <v>37</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>47</v>
@@ -4675,7 +4805,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -4698,10 +4828,10 @@
         <v>37</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="L39" s="2"/>
       <c r="M39" s="2"/>
@@ -4753,7 +4883,7 @@
         <v>37</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>38</v>
@@ -4773,7 +4903,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -4799,7 +4929,7 @@
         <v>75</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="L40" s="2"/>
       <c r="M40" s="2"/>
@@ -4851,7 +4981,7 @@
         <v>37</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>38</v>
@@ -4871,7 +5001,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -4879,7 +5009,7 @@
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="F41" t="s" s="2">
         <v>47</v>
@@ -4897,7 +5027,7 @@
         <v>90</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>126</v>
+        <v>141</v>
       </c>
       <c r="L41" s="2"/>
       <c r="M41" s="2"/>
@@ -4949,10 +5079,10 @@
         <v>37</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>47</v>
@@ -4969,7 +5099,7 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -4995,7 +5125,7 @@
         <v>90</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>126</v>
+        <v>143</v>
       </c>
       <c r="L42" s="2"/>
       <c r="M42" s="2"/>
@@ -5047,7 +5177,7 @@
         <v>37</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>38</v>
@@ -5067,7 +5197,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -5078,7 +5208,7 @@
         <v>38</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>37</v>
@@ -5090,10 +5220,10 @@
         <v>37</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="L43" s="2"/>
       <c r="M43" s="2"/>
@@ -5145,13 +5275,13 @@
         <v>37</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>37</v>
@@ -5165,7 +5295,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -5191,7 +5321,7 @@
         <v>75</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="L44" s="2"/>
       <c r="M44" s="2"/>
@@ -5243,7 +5373,7 @@
         <v>37</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>38</v>
@@ -5263,7 +5393,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -5271,7 +5401,7 @@
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="F45" t="s" s="2">
         <v>47</v>
@@ -5289,7 +5419,7 @@
         <v>75</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="L45" s="2"/>
       <c r="M45" s="2"/>
@@ -5341,10 +5471,10 @@
         <v>37</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>47</v>
@@ -5361,7 +5491,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -5387,7 +5517,7 @@
         <v>107</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>137</v>
+        <v>151</v>
       </c>
       <c r="L46" s="2"/>
       <c r="M46" s="2"/>
@@ -5439,7 +5569,7 @@
         <v>37</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>38</v>
@@ -5459,7 +5589,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -5467,7 +5597,7 @@
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="F47" t="s" s="2">
         <v>47</v>
@@ -5482,10 +5612,10 @@
         <v>37</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>142</v>
+        <v>107</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>137</v>
+        <v>153</v>
       </c>
       <c r="L47" s="2"/>
       <c r="M47" s="2"/>
@@ -5537,10 +5667,10 @@
         <v>37</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>47</v>
@@ -5557,7 +5687,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -5568,7 +5698,7 @@
         <v>38</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>37</v>
@@ -5580,10 +5710,10 @@
         <v>37</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>135</v>
+        <v>155</v>
       </c>
       <c r="L48" s="2"/>
       <c r="M48" s="2"/>
@@ -5635,13 +5765,13 @@
         <v>37</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>37</v>
@@ -5655,7 +5785,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -5681,7 +5811,7 @@
         <v>75</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>137</v>
+        <v>157</v>
       </c>
       <c r="L49" s="2"/>
       <c r="M49" s="2"/>
@@ -5733,7 +5863,7 @@
         <v>37</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>38</v>
@@ -5753,7 +5883,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>145</v>
+        <v>158</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -5779,7 +5909,7 @@
         <v>75</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>139</v>
+        <v>159</v>
       </c>
       <c r="L50" s="2"/>
       <c r="M50" s="2"/>
@@ -5831,7 +5961,7 @@
         <v>37</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>145</v>
+        <v>158</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>38</v>
@@ -5851,7 +5981,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>146</v>
+        <v>160</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -5877,7 +6007,7 @@
         <v>107</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>137</v>
+        <v>161</v>
       </c>
       <c r="L51" s="2"/>
       <c r="M51" s="2"/>
@@ -5929,7 +6059,7 @@
         <v>37</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>146</v>
+        <v>160</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>38</v>
@@ -5949,7 +6079,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>147</v>
+        <v>162</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -5957,7 +6087,7 @@
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="F52" t="s" s="2">
         <v>47</v>
@@ -5972,10 +6102,10 @@
         <v>37</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>142</v>
+        <v>107</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>137</v>
+        <v>163</v>
       </c>
       <c r="L52" s="2"/>
       <c r="M52" s="2"/>
@@ -6027,10 +6157,10 @@
         <v>37</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>147</v>
+        <v>162</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>47</v>
@@ -6047,7 +6177,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>148</v>
+        <v>164</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -6058,7 +6188,7 @@
         <v>38</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>37</v>
@@ -6070,10 +6200,10 @@
         <v>37</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>135</v>
+        <v>165</v>
       </c>
       <c r="L53" s="2"/>
       <c r="M53" s="2"/>
@@ -6125,13 +6255,13 @@
         <v>37</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>148</v>
+        <v>164</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>37</v>
@@ -6145,7 +6275,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>149</v>
+        <v>166</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -6171,7 +6301,7 @@
         <v>75</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>137</v>
+        <v>167</v>
       </c>
       <c r="L54" s="2"/>
       <c r="M54" s="2"/>
@@ -6223,7 +6353,7 @@
         <v>37</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>149</v>
+        <v>166</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>38</v>
@@ -6243,7 +6373,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -6269,7 +6399,7 @@
         <v>75</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>139</v>
+        <v>169</v>
       </c>
       <c r="L55" s="2"/>
       <c r="M55" s="2"/>
@@ -6321,7 +6451,7 @@
         <v>37</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>38</v>
@@ -6341,7 +6471,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>151</v>
+        <v>170</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -6367,7 +6497,7 @@
         <v>107</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>137</v>
+        <v>171</v>
       </c>
       <c r="L56" s="2"/>
       <c r="M56" s="2"/>
@@ -6419,7 +6549,7 @@
         <v>37</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>151</v>
+        <v>170</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>38</v>
@@ -6439,7 +6569,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>152</v>
+        <v>172</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -6447,7 +6577,7 @@
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="F57" t="s" s="2">
         <v>47</v>
@@ -6462,10 +6592,10 @@
         <v>37</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>142</v>
+        <v>107</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>137</v>
+        <v>173</v>
       </c>
       <c r="L57" s="2"/>
       <c r="M57" s="2"/>
@@ -6517,10 +6647,10 @@
         <v>37</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>152</v>
+        <v>172</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>47</v>
@@ -6537,7 +6667,7 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>153</v>
+        <v>174</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -6548,7 +6678,7 @@
         <v>38</v>
       </c>
       <c r="F58" t="s" s="2">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>37</v>
@@ -6560,10 +6690,10 @@
         <v>37</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>135</v>
+        <v>175</v>
       </c>
       <c r="L58" s="2"/>
       <c r="M58" s="2"/>
@@ -6615,13 +6745,13 @@
         <v>37</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>153</v>
+        <v>174</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="AH58" t="s" s="2">
         <v>37</v>
@@ -6635,7 +6765,7 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>154</v>
+        <v>176</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -6661,7 +6791,7 @@
         <v>75</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>137</v>
+        <v>177</v>
       </c>
       <c r="L59" s="2"/>
       <c r="M59" s="2"/>
@@ -6713,7 +6843,7 @@
         <v>37</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>154</v>
+        <v>176</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>38</v>
@@ -6733,7 +6863,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>155</v>
+        <v>178</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -6759,7 +6889,7 @@
         <v>75</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>139</v>
+        <v>179</v>
       </c>
       <c r="L60" s="2"/>
       <c r="M60" s="2"/>
@@ -6811,7 +6941,7 @@
         <v>37</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>155</v>
+        <v>178</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>38</v>
@@ -6831,7 +6961,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>156</v>
+        <v>180</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -6857,7 +6987,7 @@
         <v>107</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>137</v>
+        <v>181</v>
       </c>
       <c r="L61" s="2"/>
       <c r="M61" s="2"/>
@@ -6909,7 +7039,7 @@
         <v>37</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>156</v>
+        <v>180</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>38</v>
@@ -6929,7 +7059,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>157</v>
+        <v>182</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -6937,7 +7067,7 @@
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="F62" t="s" s="2">
         <v>47</v>
@@ -6952,10 +7082,10 @@
         <v>37</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>142</v>
+        <v>107</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>137</v>
+        <v>183</v>
       </c>
       <c r="L62" s="2"/>
       <c r="M62" s="2"/>
@@ -7007,10 +7137,10 @@
         <v>37</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>157</v>
+        <v>182</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>47</v>
@@ -7027,7 +7157,7 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>158</v>
+        <v>184</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -7038,7 +7168,7 @@
         <v>38</v>
       </c>
       <c r="F63" t="s" s="2">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="G63" t="s" s="2">
         <v>37</v>
@@ -7050,10 +7180,10 @@
         <v>37</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>159</v>
+        <v>185</v>
       </c>
       <c r="L63" s="2"/>
       <c r="M63" s="2"/>
@@ -7105,13 +7235,13 @@
         <v>37</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>158</v>
+        <v>184</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="AH63" t="s" s="2">
         <v>37</v>
@@ -7125,7 +7255,7 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>160</v>
+        <v>186</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -7148,10 +7278,10 @@
         <v>37</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>161</v>
+        <v>187</v>
       </c>
       <c r="L64" s="2"/>
       <c r="M64" s="2"/>
@@ -7203,7 +7333,7 @@
         <v>37</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>160</v>
+        <v>186</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>38</v>
@@ -7223,7 +7353,7 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>162</v>
+        <v>188</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -7249,7 +7379,7 @@
         <v>75</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>163</v>
+        <v>189</v>
       </c>
       <c r="L65" s="2"/>
       <c r="M65" s="2"/>
@@ -7301,7 +7431,7 @@
         <v>37</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>162</v>
+        <v>188</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>38</v>
@@ -7321,7 +7451,7 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>164</v>
+        <v>190</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -7344,10 +7474,10 @@
         <v>37</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>165</v>
+        <v>191</v>
       </c>
       <c r="L66" s="2"/>
       <c r="M66" s="2"/>
@@ -7399,7 +7529,7 @@
         <v>37</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>164</v>
+        <v>190</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>38</v>
@@ -7419,7 +7549,7 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>166</v>
+        <v>192</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -7442,10 +7572,10 @@
         <v>37</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>75</v>
+        <v>107</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>167</v>
+        <v>193</v>
       </c>
       <c r="L67" s="2"/>
       <c r="M67" s="2"/>
@@ -7497,7 +7627,7 @@
         <v>37</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>166</v>
+        <v>192</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>38</v>
@@ -7517,7 +7647,7 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>168</v>
+        <v>194</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -7543,7 +7673,7 @@
         <v>75</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>169</v>
+        <v>195</v>
       </c>
       <c r="L68" s="2"/>
       <c r="M68" s="2"/>
@@ -7595,7 +7725,7 @@
         <v>37</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>168</v>
+        <v>194</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>38</v>
@@ -7615,7 +7745,7 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>170</v>
+        <v>196</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -7641,7 +7771,7 @@
         <v>75</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>171</v>
+        <v>197</v>
       </c>
       <c r="L69" s="2"/>
       <c r="M69" s="2"/>
@@ -7693,7 +7823,7 @@
         <v>37</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>170</v>
+        <v>196</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>38</v>
@@ -7713,7 +7843,7 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>172</v>
+        <v>198</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -7739,7 +7869,7 @@
         <v>107</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>173</v>
+        <v>199</v>
       </c>
       <c r="L70" s="2"/>
       <c r="M70" s="2"/>
@@ -7791,7 +7921,7 @@
         <v>37</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>172</v>
+        <v>198</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>38</v>
@@ -7811,7 +7941,7 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>174</v>
+        <v>200</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -7834,10 +7964,10 @@
         <v>37</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>175</v>
+        <v>201</v>
       </c>
       <c r="L71" s="2"/>
       <c r="M71" s="2"/>
@@ -7889,7 +8019,7 @@
         <v>37</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>174</v>
+        <v>200</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>38</v>
@@ -7909,7 +8039,7 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>176</v>
+        <v>202</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -7935,7 +8065,7 @@
         <v>75</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>177</v>
+        <v>203</v>
       </c>
       <c r="L72" s="2"/>
       <c r="M72" s="2"/>
@@ -7987,7 +8117,7 @@
         <v>37</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>176</v>
+        <v>202</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>38</v>
@@ -8007,7 +8137,7 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>178</v>
+        <v>204</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -8033,7 +8163,7 @@
         <v>75</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>179</v>
+        <v>205</v>
       </c>
       <c r="L73" s="2"/>
       <c r="M73" s="2"/>
@@ -8085,7 +8215,7 @@
         <v>37</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>178</v>
+        <v>204</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>38</v>
@@ -8105,7 +8235,7 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>180</v>
+        <v>206</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -8131,7 +8261,7 @@
         <v>75</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>181</v>
+        <v>207</v>
       </c>
       <c r="L74" s="2"/>
       <c r="M74" s="2"/>
@@ -8183,7 +8313,7 @@
         <v>37</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>180</v>
+        <v>206</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>38</v>
@@ -8203,7 +8333,7 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>182</v>
+        <v>208</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -8226,10 +8356,10 @@
         <v>37</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>181</v>
+        <v>209</v>
       </c>
       <c r="L75" s="2"/>
       <c r="M75" s="2"/>
@@ -8281,7 +8411,7 @@
         <v>37</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>182</v>
+        <v>208</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>38</v>
@@ -8301,7 +8431,7 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>183</v>
+        <v>210</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -8324,10 +8454,10 @@
         <v>37</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>184</v>
+        <v>211</v>
       </c>
       <c r="L76" s="2"/>
       <c r="M76" s="2"/>
@@ -8379,7 +8509,7 @@
         <v>37</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>183</v>
+        <v>210</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>38</v>
@@ -8399,7 +8529,7 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>185</v>
+        <v>212</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -8422,10 +8552,10 @@
         <v>37</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>67</v>
+        <v>213</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>186</v>
+        <v>214</v>
       </c>
       <c r="L77" s="2"/>
       <c r="M77" s="2"/>
@@ -8477,7 +8607,7 @@
         <v>37</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>185</v>
+        <v>212</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>38</v>
@@ -8497,7 +8627,7 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>187</v>
+        <v>215</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -8520,10 +8650,10 @@
         <v>37</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>188</v>
+        <v>213</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>189</v>
+        <v>216</v>
       </c>
       <c r="L78" s="2"/>
       <c r="M78" s="2"/>
@@ -8575,7 +8705,7 @@
         <v>37</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>187</v>
+        <v>215</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>38</v>
@@ -8595,7 +8725,7 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>190</v>
+        <v>217</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -8621,7 +8751,7 @@
         <v>107</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>191</v>
+        <v>218</v>
       </c>
       <c r="L79" s="2"/>
       <c r="M79" s="2"/>
@@ -8673,7 +8803,7 @@
         <v>37</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>190</v>
+        <v>217</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>38</v>
@@ -8693,7 +8823,7 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>192</v>
+        <v>219</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -8719,7 +8849,7 @@
         <v>75</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>193</v>
+        <v>220</v>
       </c>
       <c r="L80" s="2"/>
       <c r="M80" s="2"/>
@@ -8771,7 +8901,7 @@
         <v>37</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>192</v>
+        <v>219</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>38</v>
@@ -8791,7 +8921,7 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>194</v>
+        <v>221</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -8814,10 +8944,10 @@
         <v>37</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>188</v>
+        <v>37</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>195</v>
+        <v>222</v>
       </c>
       <c r="L81" s="2"/>
       <c r="M81" s="2"/>
@@ -8869,7 +8999,7 @@
         <v>37</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>194</v>
+        <v>221</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>38</v>
@@ -8889,7 +9019,7 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>196</v>
+        <v>223</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -8912,10 +9042,10 @@
         <v>37</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>107</v>
+        <v>213</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>197</v>
+        <v>224</v>
       </c>
       <c r="L82" s="2"/>
       <c r="M82" s="2"/>
@@ -8967,7 +9097,7 @@
         <v>37</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>196</v>
+        <v>223</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>38</v>
@@ -8987,7 +9117,7 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>198</v>
+        <v>225</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -9010,10 +9140,10 @@
         <v>37</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>67</v>
+        <v>107</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>199</v>
+        <v>226</v>
       </c>
       <c r="L83" s="2"/>
       <c r="M83" s="2"/>
@@ -9065,7 +9195,7 @@
         <v>37</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>198</v>
+        <v>225</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>38</v>
@@ -9085,7 +9215,7 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>200</v>
+        <v>227</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -9108,10 +9238,10 @@
         <v>37</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>75</v>
+        <v>37</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>201</v>
+        <v>228</v>
       </c>
       <c r="L84" s="2"/>
       <c r="M84" s="2"/>
@@ -9163,7 +9293,7 @@
         <v>37</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>200</v>
+        <v>227</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>38</v>
@@ -9183,7 +9313,7 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>202</v>
+        <v>229</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -9206,10 +9336,10 @@
         <v>37</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>188</v>
+        <v>75</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>203</v>
+        <v>230</v>
       </c>
       <c r="L85" s="2"/>
       <c r="M85" s="2"/>
@@ -9261,7 +9391,7 @@
         <v>37</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>202</v>
+        <v>229</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>38</v>
@@ -9281,7 +9411,7 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>204</v>
+        <v>231</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -9304,10 +9434,10 @@
         <v>37</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>107</v>
+        <v>213</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>205</v>
+        <v>232</v>
       </c>
       <c r="L86" s="2"/>
       <c r="M86" s="2"/>
@@ -9359,7 +9489,7 @@
         <v>37</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>204</v>
+        <v>231</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>38</v>
@@ -9379,7 +9509,7 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>206</v>
+        <v>233</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -9402,10 +9532,10 @@
         <v>37</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>67</v>
+        <v>107</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>207</v>
+        <v>234</v>
       </c>
       <c r="L87" s="2"/>
       <c r="M87" s="2"/>
@@ -9457,7 +9587,7 @@
         <v>37</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>206</v>
+        <v>233</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>38</v>
@@ -9477,7 +9607,7 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>208</v>
+        <v>235</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -9500,10 +9630,10 @@
         <v>37</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>75</v>
+        <v>37</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>209</v>
+        <v>236</v>
       </c>
       <c r="L88" s="2"/>
       <c r="M88" s="2"/>
@@ -9555,7 +9685,7 @@
         <v>37</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>208</v>
+        <v>235</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>38</v>
@@ -9575,7 +9705,7 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>210</v>
+        <v>237</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -9598,10 +9728,10 @@
         <v>37</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>211</v>
+        <v>238</v>
       </c>
       <c r="L89" s="2"/>
       <c r="M89" s="2"/>
@@ -9653,7 +9783,7 @@
         <v>37</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>210</v>
+        <v>237</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>38</v>
@@ -9673,7 +9803,7 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>212</v>
+        <v>239</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
@@ -9696,10 +9826,10 @@
         <v>37</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>75</v>
+        <v>213</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>213</v>
+        <v>240</v>
       </c>
       <c r="L90" s="2"/>
       <c r="M90" s="2"/>
@@ -9751,7 +9881,7 @@
         <v>37</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>212</v>
+        <v>239</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>38</v>
@@ -9771,7 +9901,7 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>214</v>
+        <v>241</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
@@ -9797,7 +9927,7 @@
         <v>107</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>215</v>
+        <v>242</v>
       </c>
       <c r="L91" s="2"/>
       <c r="M91" s="2"/>
@@ -9849,7 +9979,7 @@
         <v>37</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>214</v>
+        <v>241</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>38</v>
@@ -9869,7 +9999,7 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>216</v>
+        <v>243</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
@@ -9880,7 +10010,7 @@
         <v>38</v>
       </c>
       <c r="F92" t="s" s="2">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="G92" t="s" s="2">
         <v>37</v>
@@ -9892,10 +10022,10 @@
         <v>37</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>217</v>
+        <v>244</v>
       </c>
       <c r="L92" s="2"/>
       <c r="M92" s="2"/>
@@ -9947,13 +10077,13 @@
         <v>37</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>216</v>
+        <v>243</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AG92" t="s" s="2">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="AH92" t="s" s="2">
         <v>37</v>
@@ -9967,7 +10097,7 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>218</v>
+        <v>245</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
@@ -9990,10 +10120,10 @@
         <v>37</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>217</v>
+        <v>246</v>
       </c>
       <c r="L93" s="2"/>
       <c r="M93" s="2"/>
@@ -10045,7 +10175,7 @@
         <v>37</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>218</v>
+        <v>245</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>38</v>
@@ -10065,7 +10195,7 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>219</v>
+        <v>247</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
@@ -10088,10 +10218,10 @@
         <v>37</v>
       </c>
       <c r="J94" t="s" s="2">
-        <v>75</v>
+        <v>107</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>220</v>
+        <v>248</v>
       </c>
       <c r="L94" s="2"/>
       <c r="M94" s="2"/>
@@ -10143,7 +10273,7 @@
         <v>37</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>219</v>
+        <v>247</v>
       </c>
       <c r="AF94" t="s" s="2">
         <v>38</v>
@@ -10163,7 +10293,7 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>221</v>
+        <v>249</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
@@ -10189,7 +10319,7 @@
         <v>75</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="L95" s="2"/>
       <c r="M95" s="2"/>
@@ -10241,7 +10371,7 @@
         <v>37</v>
       </c>
       <c r="AE95" t="s" s="2">
-        <v>221</v>
+        <v>249</v>
       </c>
       <c r="AF95" t="s" s="2">
         <v>38</v>
@@ -10261,7 +10391,7 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>222</v>
+        <v>251</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" t="s" s="2">
@@ -10284,10 +10414,10 @@
         <v>37</v>
       </c>
       <c r="J96" t="s" s="2">
-        <v>223</v>
+        <v>107</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>220</v>
+        <v>252</v>
       </c>
       <c r="L96" s="2"/>
       <c r="M96" s="2"/>
@@ -10339,7 +10469,7 @@
         <v>37</v>
       </c>
       <c r="AE96" t="s" s="2">
-        <v>222</v>
+        <v>251</v>
       </c>
       <c r="AF96" t="s" s="2">
         <v>38</v>
@@ -10359,7 +10489,7 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>224</v>
+        <v>253</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" t="s" s="2">
@@ -10382,10 +10512,10 @@
         <v>37</v>
       </c>
       <c r="J97" t="s" s="2">
-        <v>107</v>
+        <v>37</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>220</v>
+        <v>254</v>
       </c>
       <c r="L97" s="2"/>
       <c r="M97" s="2"/>
@@ -10437,7 +10567,7 @@
         <v>37</v>
       </c>
       <c r="AE97" t="s" s="2">
-        <v>224</v>
+        <v>253</v>
       </c>
       <c r="AF97" t="s" s="2">
         <v>38</v>
@@ -10457,7 +10587,7 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>225</v>
+        <v>255</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" t="s" s="2">
@@ -10480,10 +10610,10 @@
         <v>37</v>
       </c>
       <c r="J98" t="s" s="2">
-        <v>90</v>
+        <v>107</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>220</v>
+        <v>256</v>
       </c>
       <c r="L98" s="2"/>
       <c r="M98" s="2"/>
@@ -10535,7 +10665,7 @@
         <v>37</v>
       </c>
       <c r="AE98" t="s" s="2">
-        <v>225</v>
+        <v>255</v>
       </c>
       <c r="AF98" t="s" s="2">
         <v>38</v>
@@ -10555,7 +10685,7 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>226</v>
+        <v>257</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" t="s" s="2">
@@ -10581,7 +10711,7 @@
         <v>75</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>220</v>
+        <v>258</v>
       </c>
       <c r="L99" s="2"/>
       <c r="M99" s="2"/>
@@ -10633,7 +10763,7 @@
         <v>37</v>
       </c>
       <c r="AE99" t="s" s="2">
-        <v>226</v>
+        <v>257</v>
       </c>
       <c r="AF99" t="s" s="2">
         <v>38</v>
@@ -10653,7 +10783,7 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>227</v>
+        <v>259</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" t="s" s="2">
@@ -10679,7 +10809,7 @@
         <v>75</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>220</v>
+        <v>260</v>
       </c>
       <c r="L100" s="2"/>
       <c r="M100" s="2"/>
@@ -10731,7 +10861,7 @@
         <v>37</v>
       </c>
       <c r="AE100" t="s" s="2">
-        <v>227</v>
+        <v>259</v>
       </c>
       <c r="AF100" t="s" s="2">
         <v>38</v>
@@ -10751,7 +10881,7 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>228</v>
+        <v>261</v>
       </c>
       <c r="B101" s="2"/>
       <c r="C101" t="s" s="2">
@@ -10774,10 +10904,10 @@
         <v>37</v>
       </c>
       <c r="J101" t="s" s="2">
-        <v>67</v>
+        <v>262</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>229</v>
+        <v>263</v>
       </c>
       <c r="L101" s="2"/>
       <c r="M101" s="2"/>
@@ -10829,7 +10959,7 @@
         <v>37</v>
       </c>
       <c r="AE101" t="s" s="2">
-        <v>228</v>
+        <v>261</v>
       </c>
       <c r="AF101" t="s" s="2">
         <v>38</v>
@@ -10849,7 +10979,7 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>230</v>
+        <v>264</v>
       </c>
       <c r="B102" s="2"/>
       <c r="C102" t="s" s="2">
@@ -10860,7 +10990,7 @@
         <v>38</v>
       </c>
       <c r="F102" t="s" s="2">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="G102" t="s" s="2">
         <v>37</v>
@@ -10872,10 +11002,10 @@
         <v>37</v>
       </c>
       <c r="J102" t="s" s="2">
-        <v>75</v>
+        <v>107</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>231</v>
+        <v>265</v>
       </c>
       <c r="L102" s="2"/>
       <c r="M102" s="2"/>
@@ -10927,13 +11057,13 @@
         <v>37</v>
       </c>
       <c r="AE102" t="s" s="2">
-        <v>230</v>
+        <v>264</v>
       </c>
       <c r="AF102" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AG102" t="s" s="2">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="AH102" t="s" s="2">
         <v>37</v>
@@ -10947,7 +11077,7 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>232</v>
+        <v>266</v>
       </c>
       <c r="B103" s="2"/>
       <c r="C103" t="s" s="2">
@@ -10970,10 +11100,10 @@
         <v>37</v>
       </c>
       <c r="J103" t="s" s="2">
-        <v>107</v>
+        <v>90</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>233</v>
+        <v>267</v>
       </c>
       <c r="L103" s="2"/>
       <c r="M103" s="2"/>
@@ -11025,7 +11155,7 @@
         <v>37</v>
       </c>
       <c r="AE103" t="s" s="2">
-        <v>232</v>
+        <v>266</v>
       </c>
       <c r="AF103" t="s" s="2">
         <v>38</v>
@@ -11040,11 +11170,501 @@
         <v>37</v>
       </c>
       <c r="AJ103" t="s" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="104" hidden="true">
+      <c r="A104" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="B104" s="2"/>
+      <c r="C104" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="D104" s="2"/>
+      <c r="E104" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F104" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="G104" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="H104" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I104" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J104" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K104" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="L104" s="2"/>
+      <c r="M104" s="2"/>
+      <c r="N104" s="2"/>
+      <c r="O104" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="P104" s="2"/>
+      <c r="Q104" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="R104" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S104" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T104" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U104" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V104" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W104" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X104" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y104" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z104" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA104" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB104" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC104" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD104" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE104" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="AF104" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG104" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AH104" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AI104" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AJ104" t="s" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="105" hidden="true">
+      <c r="A105" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="B105" s="2"/>
+      <c r="C105" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="D105" s="2"/>
+      <c r="E105" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F105" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="G105" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="H105" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I105" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J105" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K105" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="L105" s="2"/>
+      <c r="M105" s="2"/>
+      <c r="N105" s="2"/>
+      <c r="O105" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="P105" s="2"/>
+      <c r="Q105" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="R105" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S105" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T105" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U105" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V105" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W105" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X105" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y105" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z105" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA105" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB105" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC105" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD105" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE105" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="AF105" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG105" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AH105" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AI105" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AJ105" t="s" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="106" hidden="true">
+      <c r="A106" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="B106" s="2"/>
+      <c r="C106" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="D106" s="2"/>
+      <c r="E106" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F106" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="G106" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="H106" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I106" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J106" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="K106" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="L106" s="2"/>
+      <c r="M106" s="2"/>
+      <c r="N106" s="2"/>
+      <c r="O106" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="P106" s="2"/>
+      <c r="Q106" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="R106" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S106" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T106" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U106" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V106" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W106" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X106" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y106" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z106" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA106" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB106" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC106" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD106" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE106" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="AF106" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG106" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AH106" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AI106" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AJ106" t="s" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="107" hidden="true">
+      <c r="A107" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="B107" s="2"/>
+      <c r="C107" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="D107" s="2"/>
+      <c r="E107" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F107" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="G107" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="H107" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I107" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J107" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K107" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="L107" s="2"/>
+      <c r="M107" s="2"/>
+      <c r="N107" s="2"/>
+      <c r="O107" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="P107" s="2"/>
+      <c r="Q107" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="R107" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S107" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T107" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U107" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V107" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W107" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X107" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y107" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z107" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA107" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB107" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC107" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD107" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE107" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="AF107" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG107" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AH107" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AI107" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AJ107" t="s" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="108" hidden="true">
+      <c r="A108" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="B108" s="2"/>
+      <c r="C108" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="D108" s="2"/>
+      <c r="E108" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F108" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="G108" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="H108" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I108" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J108" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="K108" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="L108" s="2"/>
+      <c r="M108" s="2"/>
+      <c r="N108" s="2"/>
+      <c r="O108" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="P108" s="2"/>
+      <c r="Q108" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="R108" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S108" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T108" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U108" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V108" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W108" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X108" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y108" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z108" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA108" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB108" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC108" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD108" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE108" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="AF108" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG108" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AH108" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AI108" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AJ108" t="s" s="2">
         <v>37</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AJ103">
+  <autoFilter ref="A1:AJ108">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -11054,7 +11674,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI102">
+  <conditionalFormatting sqref="A2:AI107">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
